--- a/list_block_rows.xlsx
+++ b/list_block_rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/asarraf_student_unimelb_edu_au/Documents/Documents/Task/Numerical Stroop Task Switching/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/asarraf_student_unimelb_edu_au/Documents/Documents/Task/Numerical Stroop Task Switching/switch alternating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7BBA923D-EE1C-4639-B7BC-513A06AB6CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{474762C1-D8D6-423D-A205-9E8106A69D83}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{711B2D11-667B-4101-A2DD-659E89B2CE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022B12F8-C309-4835-BF80-F104B17ECCFF}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>block_number_loop</t>
   </si>
@@ -33,35 +33,23 @@
     <t>list_of_rows</t>
   </si>
   <si>
-    <t>20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39</t>
-  </si>
-  <si>
-    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19</t>
-  </si>
-  <si>
-    <t>40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59</t>
-  </si>
-  <si>
-    <t>60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79</t>
-  </si>
-  <si>
-    <t>80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99</t>
-  </si>
-  <si>
-    <t>140,141,142,143,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159</t>
-  </si>
-  <si>
-    <t>100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119</t>
-  </si>
-  <si>
-    <t>120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139</t>
+    <t>72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95</t>
+  </si>
+  <si>
+    <t>48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23</t>
+  </si>
+  <si>
+    <t>24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,27 +57,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,12 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,6 +96,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,87 +365,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="148" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
